--- a/StockAnalyzerWB.xlsx
+++ b/StockAnalyzerWB.xlsx
@@ -285,7 +285,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -323,6 +323,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -874,7 +877,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,11 +885,11 @@
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="19"/>
@@ -896,6 +899,8 @@
       <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
@@ -968,10 +973,12 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/StockAnalyzerWB.xlsx
+++ b/StockAnalyzerWB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="7275"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="6975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
   <si>
     <t>C</t>
   </si>
@@ -66,12 +66,6 @@
   </si>
   <si>
     <t>MSFT</t>
-  </si>
-  <si>
-    <t>Example  of stocks using price from ThinkOrSwim (RTD)</t>
-  </si>
-  <si>
-    <t>Example of stocks using a set price</t>
   </si>
   <si>
     <t>Last Price</t>
@@ -123,6 +117,18 @@
   </si>
   <si>
     <t>TSLA</t>
+  </si>
+  <si>
+    <t>SGOL</t>
+  </si>
+  <si>
+    <t>ThinkOrSwim needs to be running to show last price.</t>
+  </si>
+  <si>
+    <t>SNAP</t>
+  </si>
+  <si>
+    <t>FIT</t>
   </si>
 </sst>
 </file>
@@ -177,7 +183,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,8 +208,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -262,22 +280,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -302,13 +311,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -322,6 +332,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFBDD7EE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -338,32 +353,64 @@
   <volType type="realTimeData">
     <main first="tos.rtd">
       <tp>
-        <v>95.56</v>
+        <v>5.76</v>
+        <stp/>
+        <stp>LAST</stp>
+        <stp>FIT</stp>
+        <tr r="B11" s="2"/>
+      </tp>
+      <tp>
+        <v>106.94</v>
         <stp/>
         <stp>LAST</stp>
         <stp>MSFT</stp>
+        <tr r="B5" s="2"/>
+      </tp>
+      <tp>
+        <v>338.73</v>
+        <stp/>
+        <stp>LAST</stp>
+        <stp>TSLA</stp>
         <tr r="B8" s="2"/>
       </tp>
       <tp>
-        <v>301.64</v>
+        <v>6.71</v>
         <stp/>
         <stp>LAST</stp>
-        <stp>TSLA</stp>
-        <tr r="B11" s="2"/>
+        <stp>SNAP</stp>
+        <tr r="B10" s="2"/>
       </tp>
       <tp>
-        <v>185.76</v>
+        <v>192.23</v>
         <stp/>
         <stp>LAST</stp>
         <stp>AAPL</stp>
+        <tr r="B6" s="2"/>
+      </tp>
+      <tp>
+        <v>115.97</v>
+        <stp/>
+        <stp>LAST</stp>
+        <stp>SGOL</stp>
         <tr r="B9" s="2"/>
       </tp>
       <tp>
-        <v>71.290000000000006</v>
+        <v>64.78</v>
         <stp/>
         <stp>LAST</stp>
         <stp>C</stp>
-        <tr r="B10" s="2"/>
+        <tr r="B7" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>LAST</stp>
+        <stp/>
+        <tr r="B13" s="2"/>
+        <tr r="B15" s="2"/>
+        <tr r="B14" s="2"/>
+        <tr r="B12" s="2"/>
+        <tr r="B16" s="2"/>
       </tp>
     </main>
   </volType>
@@ -372,34 +419,34 @@
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1D7AF4459173B914D501A3F41CFBC00960E0C1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2990"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="582"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1FE18F5AD1E194144F51935C17551841176BE1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1CDB106FD1F2A1143B119F2D1037FFB3168251"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="3122"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2F7211FB52C91C24D2B2BA4A298A1A63904182"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="661"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1270"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -415,8 +462,76 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3281"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="609"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5636"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2F7211FB52C91C24D2B2BA4A298A1A63904182"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5636"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="661"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1FE18F5AD1E194144F51935C17551841176BE1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1984"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ListBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9ED91803D9EF63948F19A14F9F716906B5A769"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3413"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="4339"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="15CE8BC081D2F914EDD19FC51B78F0DC5E6F61"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3942"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -427,16 +542,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>114300</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>676275</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
+          <xdr:rowOff>885825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -458,7 +573,7 @@
               <a:avLst/>
             </a:prstGeom>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              <a:srgbClr val="BDCDE1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -486,16 +601,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>247650</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>133350</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -545,16 +660,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>561975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>361950</xdr:rowOff>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -562,6 +677,242 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>161925</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>1419225</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="_ActiveXWrapper5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>590550</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>323850</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1034" name="_ActiveXWrapper6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1034"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="BDCDE1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="_ActiveXWrapper16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="BDCDE1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>133350</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1036" name="_ActiveXWrapper7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -867,11 +1218,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,104 +1230,151 @@
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="1:15" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="16"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>59.204999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <f>RTD("tos.rtd", , "LAST", Symbol)</f>
+        <v>106.94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>109.78019999999999</v>
-      </c>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B6">
+        <f>RTD("tos.rtd", , "LAST", Symbol)</f>
+        <v>192.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6">
-        <v>56.12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="15"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <f>RTD("tos.rtd", , "LAST", Symbol)</f>
+        <v>64.78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <f>RTD("tos.rtd", , "LAST", Symbol)</f>
-        <v>95.56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+        <v>338.73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <f>RTD("tos.rtd", , "LAST", Symbol)</f>
-        <v>185.76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+        <v>115.97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <f>RTD("tos.rtd", , "LAST", Symbol)</f>
-        <v>71.290000000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <f>RTD("tos.rtd", , "LAST", Symbol)</f>
-        <v>301.64</v>
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" t="e">
+        <f>RTD("tos.rtd", , "LAST", Symbol)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" t="e">
+        <f>RTD("tos.rtd", , "LAST", Symbol)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" t="e">
+        <f>RTD("tos.rtd", , "LAST", Symbol)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" t="e">
+        <f>RTD("tos.rtd", , "LAST", Symbol)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" t="e">
+        <f>RTD("tos.rtd", , "LAST", Symbol)</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="3">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A3:B3"/>
+  <mergeCells count="2">
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="C1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -986,18 +1384,168 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="1036" r:id="rId4" name="_ActiveXWrapper7">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId4" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1034" r:id="rId6" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>323850</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1034" r:id="rId6" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId8" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>561975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>838200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId8" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId10" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>247650</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>485775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId10" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId12" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>885825</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId12" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1033" r:id="rId14" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>1419225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1033" r:id="rId14" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId16" name="_ActiveXWrapper16">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -1006,57 +1554,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId6" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId8" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>361950</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId8" name="_ActiveXWrapper3"/>
+        <control shapeId="1035" r:id="rId16" name="_ActiveXWrapper16"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -1071,19 +1569,19 @@
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" customWidth="1"/>
     <col min="5" max="6" width="5" customWidth="1"/>
     <col min="7" max="7" width="3.85546875" customWidth="1"/>
     <col min="8" max="8" width="6.85546875" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" style="14" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" style="13" customWidth="1"/>
     <col min="10" max="10" width="5.5703125" customWidth="1"/>
     <col min="11" max="11" width="5.42578125" customWidth="1"/>
     <col min="12" max="12" width="6.7109375" customWidth="1"/>
@@ -1105,43 +1603,43 @@
   <sheetData>
     <row r="1" spans="1:25" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>14</v>
-      </c>
       <c r="J1" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N1" s="9">
         <f>LastPrice* (1-O1)</f>
@@ -1197,52 +1695,52 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="17"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="18"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I4" s="14" t="str">
+      <c r="I4" s="13" t="str">
         <f t="shared" ref="I4:I68" si="0">IF(AND(ISNUMBER(xBid),ISNUMBER(xAsk)),(xAsk-xBid)/2 +xBid, IF(AND(ISNUMBER(Bid),ISNUMBER(Ask)),(Ask-Bid)/2 +Bid, IF(ISNUMBER(Last), Last,"")))</f>
         <v/>
       </c>
@@ -1300,7 +1798,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I5" s="14" t="str">
+      <c r="I5" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1358,7 +1856,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I6" s="14" t="str">
+      <c r="I6" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1416,7 +1914,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I7" s="14" t="str">
+      <c r="I7" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1474,7 +1972,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I8" s="14" t="str">
+      <c r="I8" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1532,7 +2030,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I9" s="14" t="str">
+      <c r="I9" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1590,7 +2088,7 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I10" s="14" t="str">
+      <c r="I10" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1648,7 +2146,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I11" s="14" t="str">
+      <c r="I11" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1706,7 +2204,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I12" s="14" t="str">
+      <c r="I12" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1764,7 +2262,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I13" s="14" t="str">
+      <c r="I13" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1822,7 +2320,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I14" s="14" t="str">
+      <c r="I14" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1880,7 +2378,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I15" s="14" t="str">
+      <c r="I15" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1938,7 +2436,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I16" s="14" t="str">
+      <c r="I16" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1996,7 +2494,7 @@
       </c>
     </row>
     <row r="17" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I17" s="14" t="str">
+      <c r="I17" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2054,7 +2552,7 @@
       </c>
     </row>
     <row r="18" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I18" s="14" t="str">
+      <c r="I18" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2112,7 +2610,7 @@
       </c>
     </row>
     <row r="19" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I19" s="14" t="str">
+      <c r="I19" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2170,7 +2668,7 @@
       </c>
     </row>
     <row r="20" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I20" s="14" t="str">
+      <c r="I20" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2228,7 +2726,7 @@
       </c>
     </row>
     <row r="21" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I21" s="14" t="str">
+      <c r="I21" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2286,7 +2784,7 @@
       </c>
     </row>
     <row r="22" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I22" s="14" t="str">
+      <c r="I22" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2344,7 +2842,7 @@
       </c>
     </row>
     <row r="23" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I23" s="14" t="str">
+      <c r="I23" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2402,7 +2900,7 @@
       </c>
     </row>
     <row r="24" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I24" s="14" t="str">
+      <c r="I24" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2460,7 +2958,7 @@
       </c>
     </row>
     <row r="25" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I25" s="14" t="str">
+      <c r="I25" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2518,7 +3016,7 @@
       </c>
     </row>
     <row r="26" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I26" s="14" t="str">
+      <c r="I26" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2576,7 +3074,7 @@
       </c>
     </row>
     <row r="27" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I27" s="14" t="str">
+      <c r="I27" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2634,7 +3132,7 @@
       </c>
     </row>
     <row r="28" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I28" s="14" t="str">
+      <c r="I28" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2692,7 +3190,7 @@
       </c>
     </row>
     <row r="29" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I29" s="14" t="str">
+      <c r="I29" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2750,7 +3248,7 @@
       </c>
     </row>
     <row r="30" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I30" s="14" t="str">
+      <c r="I30" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2808,7 +3306,7 @@
       </c>
     </row>
     <row r="31" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I31" s="14" t="str">
+      <c r="I31" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2866,7 +3364,7 @@
       </c>
     </row>
     <row r="32" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I32" s="14" t="str">
+      <c r="I32" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2924,7 +3422,7 @@
       </c>
     </row>
     <row r="33" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I33" s="14" t="str">
+      <c r="I33" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2982,7 +3480,7 @@
       </c>
     </row>
     <row r="34" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I34" s="14" t="str">
+      <c r="I34" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3040,7 +3538,7 @@
       </c>
     </row>
     <row r="35" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I35" s="14" t="str">
+      <c r="I35" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3098,7 +3596,7 @@
       </c>
     </row>
     <row r="36" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I36" s="14" t="str">
+      <c r="I36" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3156,7 +3654,7 @@
       </c>
     </row>
     <row r="37" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I37" s="14" t="str">
+      <c r="I37" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3214,7 +3712,7 @@
       </c>
     </row>
     <row r="38" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I38" s="14" t="str">
+      <c r="I38" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3272,7 +3770,7 @@
       </c>
     </row>
     <row r="39" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I39" s="14" t="str">
+      <c r="I39" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3330,7 +3828,7 @@
       </c>
     </row>
     <row r="40" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I40" s="14" t="str">
+      <c r="I40" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3388,7 +3886,7 @@
       </c>
     </row>
     <row r="41" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I41" s="14" t="str">
+      <c r="I41" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3446,7 +3944,7 @@
       </c>
     </row>
     <row r="42" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I42" s="14" t="str">
+      <c r="I42" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3504,7 +4002,7 @@
       </c>
     </row>
     <row r="43" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I43" s="14" t="str">
+      <c r="I43" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3562,7 +4060,7 @@
       </c>
     </row>
     <row r="44" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I44" s="14" t="str">
+      <c r="I44" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3620,7 +4118,7 @@
       </c>
     </row>
     <row r="45" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I45" s="14" t="str">
+      <c r="I45" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3678,7 +4176,7 @@
       </c>
     </row>
     <row r="46" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I46" s="14" t="str">
+      <c r="I46" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3736,7 +4234,7 @@
       </c>
     </row>
     <row r="47" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I47" s="14" t="str">
+      <c r="I47" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3794,7 +4292,7 @@
       </c>
     </row>
     <row r="48" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I48" s="14" t="str">
+      <c r="I48" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3852,7 +4350,7 @@
       </c>
     </row>
     <row r="49" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I49" s="14" t="str">
+      <c r="I49" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3910,7 +4408,7 @@
       </c>
     </row>
     <row r="50" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I50" s="14" t="str">
+      <c r="I50" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3968,7 +4466,7 @@
       </c>
     </row>
     <row r="51" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I51" s="14" t="str">
+      <c r="I51" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4026,7 +4524,7 @@
       </c>
     </row>
     <row r="52" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I52" s="14" t="str">
+      <c r="I52" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4084,7 +4582,7 @@
       </c>
     </row>
     <row r="53" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I53" s="14" t="str">
+      <c r="I53" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4142,7 +4640,7 @@
       </c>
     </row>
     <row r="54" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I54" s="14" t="str">
+      <c r="I54" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4200,7 +4698,7 @@
       </c>
     </row>
     <row r="55" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I55" s="14" t="str">
+      <c r="I55" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4258,7 +4756,7 @@
       </c>
     </row>
     <row r="56" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I56" s="14" t="str">
+      <c r="I56" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4316,7 +4814,7 @@
       </c>
     </row>
     <row r="57" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I57" s="14" t="str">
+      <c r="I57" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4374,7 +4872,7 @@
       </c>
     </row>
     <row r="58" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I58" s="14" t="str">
+      <c r="I58" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4432,7 +4930,7 @@
       </c>
     </row>
     <row r="59" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I59" s="14" t="str">
+      <c r="I59" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4490,7 +4988,7 @@
       </c>
     </row>
     <row r="60" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I60" s="14" t="str">
+      <c r="I60" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4548,7 +5046,7 @@
       </c>
     </row>
     <row r="61" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I61" s="14" t="str">
+      <c r="I61" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4606,7 +5104,7 @@
       </c>
     </row>
     <row r="62" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I62" s="14" t="str">
+      <c r="I62" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4664,7 +5162,7 @@
       </c>
     </row>
     <row r="63" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I63" s="14" t="str">
+      <c r="I63" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4722,7 +5220,7 @@
       </c>
     </row>
     <row r="64" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I64" s="14" t="str">
+      <c r="I64" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4780,7 +5278,7 @@
       </c>
     </row>
     <row r="65" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I65" s="14" t="str">
+      <c r="I65" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4838,7 +5336,7 @@
       </c>
     </row>
     <row r="66" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I66" s="14" t="str">
+      <c r="I66" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4896,7 +5394,7 @@
       </c>
     </row>
     <row r="67" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I67" s="14" t="str">
+      <c r="I67" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4954,7 +5452,7 @@
       </c>
     </row>
     <row r="68" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I68" s="14" t="str">
+      <c r="I68" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5012,7 +5510,7 @@
       </c>
     </row>
     <row r="69" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I69" s="14" t="str">
+      <c r="I69" s="13" t="str">
         <f t="shared" ref="I69:I132" si="20">IF(AND(ISNUMBER(xBid),ISNUMBER(xAsk)),(xAsk-xBid)/2 +xBid, IF(AND(ISNUMBER(Bid),ISNUMBER(Ask)),(Ask-Bid)/2 +Bid, IF(ISNUMBER(Last), Last,"")))</f>
         <v/>
       </c>
@@ -5070,7 +5568,7 @@
       </c>
     </row>
     <row r="70" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I70" s="14" t="str">
+      <c r="I70" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -5128,7 +5626,7 @@
       </c>
     </row>
     <row r="71" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I71" s="14" t="str">
+      <c r="I71" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -5186,7 +5684,7 @@
       </c>
     </row>
     <row r="72" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I72" s="14" t="str">
+      <c r="I72" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -5244,7 +5742,7 @@
       </c>
     </row>
     <row r="73" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I73" s="14" t="str">
+      <c r="I73" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -5302,7 +5800,7 @@
       </c>
     </row>
     <row r="74" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I74" s="14" t="str">
+      <c r="I74" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -5360,7 +5858,7 @@
       </c>
     </row>
     <row r="75" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I75" s="14" t="str">
+      <c r="I75" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -5418,7 +5916,7 @@
       </c>
     </row>
     <row r="76" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I76" s="14" t="str">
+      <c r="I76" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -5476,7 +5974,7 @@
       </c>
     </row>
     <row r="77" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I77" s="14" t="str">
+      <c r="I77" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -5534,7 +6032,7 @@
       </c>
     </row>
     <row r="78" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I78" s="14" t="str">
+      <c r="I78" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -5592,7 +6090,7 @@
       </c>
     </row>
     <row r="79" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I79" s="14" t="str">
+      <c r="I79" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -5650,7 +6148,7 @@
       </c>
     </row>
     <row r="80" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I80" s="14" t="str">
+      <c r="I80" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -5708,7 +6206,7 @@
       </c>
     </row>
     <row r="81" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I81" s="14" t="str">
+      <c r="I81" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -5766,7 +6264,7 @@
       </c>
     </row>
     <row r="82" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I82" s="14" t="str">
+      <c r="I82" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -5824,7 +6322,7 @@
       </c>
     </row>
     <row r="83" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I83" s="14" t="str">
+      <c r="I83" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -5882,7 +6380,7 @@
       </c>
     </row>
     <row r="84" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I84" s="14" t="str">
+      <c r="I84" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -5940,7 +6438,7 @@
       </c>
     </row>
     <row r="85" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I85" s="14" t="str">
+      <c r="I85" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -5998,7 +6496,7 @@
       </c>
     </row>
     <row r="86" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I86" s="14" t="str">
+      <c r="I86" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -6056,7 +6554,7 @@
       </c>
     </row>
     <row r="87" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I87" s="14" t="str">
+      <c r="I87" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -6114,7 +6612,7 @@
       </c>
     </row>
     <row r="88" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I88" s="14" t="str">
+      <c r="I88" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -6172,7 +6670,7 @@
       </c>
     </row>
     <row r="89" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I89" s="14" t="str">
+      <c r="I89" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -6230,7 +6728,7 @@
       </c>
     </row>
     <row r="90" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I90" s="14" t="str">
+      <c r="I90" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -6288,7 +6786,7 @@
       </c>
     </row>
     <row r="91" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I91" s="14" t="str">
+      <c r="I91" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -6346,7 +6844,7 @@
       </c>
     </row>
     <row r="92" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I92" s="14" t="str">
+      <c r="I92" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -6404,7 +6902,7 @@
       </c>
     </row>
     <row r="93" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I93" s="14" t="str">
+      <c r="I93" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -6462,7 +6960,7 @@
       </c>
     </row>
     <row r="94" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I94" s="14" t="str">
+      <c r="I94" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -6520,7 +7018,7 @@
       </c>
     </row>
     <row r="95" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I95" s="14" t="str">
+      <c r="I95" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -6578,7 +7076,7 @@
       </c>
     </row>
     <row r="96" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I96" s="14" t="str">
+      <c r="I96" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -6636,7 +7134,7 @@
       </c>
     </row>
     <row r="97" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I97" s="14" t="str">
+      <c r="I97" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -6694,7 +7192,7 @@
       </c>
     </row>
     <row r="98" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I98" s="14" t="str">
+      <c r="I98" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -6752,7 +7250,7 @@
       </c>
     </row>
     <row r="99" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I99" s="14" t="str">
+      <c r="I99" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -6810,7 +7308,7 @@
       </c>
     </row>
     <row r="100" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I100" s="14" t="str">
+      <c r="I100" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -6868,7 +7366,7 @@
       </c>
     </row>
     <row r="101" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I101" s="14" t="str">
+      <c r="I101" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -6926,7 +7424,7 @@
       </c>
     </row>
     <row r="102" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I102" s="14" t="str">
+      <c r="I102" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -6984,7 +7482,7 @@
       </c>
     </row>
     <row r="103" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I103" s="14" t="str">
+      <c r="I103" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -7042,7 +7540,7 @@
       </c>
     </row>
     <row r="104" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I104" s="14" t="str">
+      <c r="I104" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -7100,7 +7598,7 @@
       </c>
     </row>
     <row r="105" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I105" s="14" t="str">
+      <c r="I105" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -7158,7 +7656,7 @@
       </c>
     </row>
     <row r="106" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I106" s="14" t="str">
+      <c r="I106" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -7216,7 +7714,7 @@
       </c>
     </row>
     <row r="107" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I107" s="14" t="str">
+      <c r="I107" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -7274,7 +7772,7 @@
       </c>
     </row>
     <row r="108" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I108" s="14" t="str">
+      <c r="I108" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -7332,7 +7830,7 @@
       </c>
     </row>
     <row r="109" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I109" s="14" t="str">
+      <c r="I109" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -7390,7 +7888,7 @@
       </c>
     </row>
     <row r="110" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I110" s="14" t="str">
+      <c r="I110" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -7448,7 +7946,7 @@
       </c>
     </row>
     <row r="111" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I111" s="14" t="str">
+      <c r="I111" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -7506,7 +8004,7 @@
       </c>
     </row>
     <row r="112" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I112" s="14" t="str">
+      <c r="I112" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -7564,7 +8062,7 @@
       </c>
     </row>
     <row r="113" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I113" s="14" t="str">
+      <c r="I113" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -7622,7 +8120,7 @@
       </c>
     </row>
     <row r="114" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I114" s="14" t="str">
+      <c r="I114" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -7680,7 +8178,7 @@
       </c>
     </row>
     <row r="115" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I115" s="14" t="str">
+      <c r="I115" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -7738,7 +8236,7 @@
       </c>
     </row>
     <row r="116" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I116" s="14" t="str">
+      <c r="I116" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -7796,7 +8294,7 @@
       </c>
     </row>
     <row r="117" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I117" s="14" t="str">
+      <c r="I117" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -7854,7 +8352,7 @@
       </c>
     </row>
     <row r="118" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I118" s="14" t="str">
+      <c r="I118" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -7912,7 +8410,7 @@
       </c>
     </row>
     <row r="119" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I119" s="14" t="str">
+      <c r="I119" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -7970,7 +8468,7 @@
       </c>
     </row>
     <row r="120" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I120" s="14" t="str">
+      <c r="I120" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -8028,7 +8526,7 @@
       </c>
     </row>
     <row r="121" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I121" s="14" t="str">
+      <c r="I121" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -8086,7 +8584,7 @@
       </c>
     </row>
     <row r="122" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I122" s="14" t="str">
+      <c r="I122" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -8144,7 +8642,7 @@
       </c>
     </row>
     <row r="123" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I123" s="14" t="str">
+      <c r="I123" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -8202,7 +8700,7 @@
       </c>
     </row>
     <row r="124" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I124" s="14" t="str">
+      <c r="I124" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -8260,7 +8758,7 @@
       </c>
     </row>
     <row r="125" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I125" s="14" t="str">
+      <c r="I125" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -8318,7 +8816,7 @@
       </c>
     </row>
     <row r="126" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I126" s="14" t="str">
+      <c r="I126" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -8376,7 +8874,7 @@
       </c>
     </row>
     <row r="127" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I127" s="14" t="str">
+      <c r="I127" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -8434,7 +8932,7 @@
       </c>
     </row>
     <row r="128" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I128" s="14" t="str">
+      <c r="I128" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -8492,7 +8990,7 @@
       </c>
     </row>
     <row r="129" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I129" s="14" t="str">
+      <c r="I129" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -8550,7 +9048,7 @@
       </c>
     </row>
     <row r="130" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I130" s="14" t="str">
+      <c r="I130" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -8608,7 +9106,7 @@
       </c>
     </row>
     <row r="131" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I131" s="14" t="str">
+      <c r="I131" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -8666,7 +9164,7 @@
       </c>
     </row>
     <row r="132" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I132" s="14" t="str">
+      <c r="I132" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -8724,7 +9222,7 @@
       </c>
     </row>
     <row r="133" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I133" s="14" t="str">
+      <c r="I133" s="13" t="str">
         <f t="shared" ref="I133:I196" si="34">IF(AND(ISNUMBER(xBid),ISNUMBER(xAsk)),(xAsk-xBid)/2 +xBid, IF(AND(ISNUMBER(Bid),ISNUMBER(Ask)),(Ask-Bid)/2 +Bid, IF(ISNUMBER(Last), Last,"")))</f>
         <v/>
       </c>
@@ -8782,7 +9280,7 @@
       </c>
     </row>
     <row r="134" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I134" s="14" t="str">
+      <c r="I134" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8840,7 +9338,7 @@
       </c>
     </row>
     <row r="135" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I135" s="14" t="str">
+      <c r="I135" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8898,7 +9396,7 @@
       </c>
     </row>
     <row r="136" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I136" s="14" t="str">
+      <c r="I136" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8956,7 +9454,7 @@
       </c>
     </row>
     <row r="137" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I137" s="14" t="str">
+      <c r="I137" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -9014,7 +9512,7 @@
       </c>
     </row>
     <row r="138" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I138" s="14" t="str">
+      <c r="I138" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -9072,7 +9570,7 @@
       </c>
     </row>
     <row r="139" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I139" s="14" t="str">
+      <c r="I139" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -9130,7 +9628,7 @@
       </c>
     </row>
     <row r="140" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I140" s="14" t="str">
+      <c r="I140" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -9188,7 +9686,7 @@
       </c>
     </row>
     <row r="141" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I141" s="14" t="str">
+      <c r="I141" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -9246,7 +9744,7 @@
       </c>
     </row>
     <row r="142" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I142" s="14" t="str">
+      <c r="I142" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -9304,7 +9802,7 @@
       </c>
     </row>
     <row r="143" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I143" s="14" t="str">
+      <c r="I143" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -9362,7 +9860,7 @@
       </c>
     </row>
     <row r="144" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I144" s="14" t="str">
+      <c r="I144" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -9420,7 +9918,7 @@
       </c>
     </row>
     <row r="145" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I145" s="14" t="str">
+      <c r="I145" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -9478,7 +9976,7 @@
       </c>
     </row>
     <row r="146" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I146" s="14" t="str">
+      <c r="I146" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -9536,7 +10034,7 @@
       </c>
     </row>
     <row r="147" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I147" s="14" t="str">
+      <c r="I147" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -9594,7 +10092,7 @@
       </c>
     </row>
     <row r="148" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I148" s="14" t="str">
+      <c r="I148" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -9652,7 +10150,7 @@
       </c>
     </row>
     <row r="149" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I149" s="14" t="str">
+      <c r="I149" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -9710,7 +10208,7 @@
       </c>
     </row>
     <row r="150" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I150" s="14" t="str">
+      <c r="I150" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -9768,7 +10266,7 @@
       </c>
     </row>
     <row r="151" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I151" s="14" t="str">
+      <c r="I151" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -9826,7 +10324,7 @@
       </c>
     </row>
     <row r="152" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I152" s="14" t="str">
+      <c r="I152" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -9884,7 +10382,7 @@
       </c>
     </row>
     <row r="153" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I153" s="14" t="str">
+      <c r="I153" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -9942,7 +10440,7 @@
       </c>
     </row>
     <row r="154" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I154" s="14" t="str">
+      <c r="I154" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -10000,7 +10498,7 @@
       </c>
     </row>
     <row r="155" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I155" s="14" t="str">
+      <c r="I155" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -10058,7 +10556,7 @@
       </c>
     </row>
     <row r="156" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I156" s="14" t="str">
+      <c r="I156" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -10116,7 +10614,7 @@
       </c>
     </row>
     <row r="157" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I157" s="14" t="str">
+      <c r="I157" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -10174,7 +10672,7 @@
       </c>
     </row>
     <row r="158" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I158" s="14" t="str">
+      <c r="I158" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -10232,7 +10730,7 @@
       </c>
     </row>
     <row r="159" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I159" s="14" t="str">
+      <c r="I159" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -10290,7 +10788,7 @@
       </c>
     </row>
     <row r="160" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I160" s="14" t="str">
+      <c r="I160" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -10348,7 +10846,7 @@
       </c>
     </row>
     <row r="161" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I161" s="14" t="str">
+      <c r="I161" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -10406,7 +10904,7 @@
       </c>
     </row>
     <row r="162" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I162" s="14" t="str">
+      <c r="I162" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -10464,7 +10962,7 @@
       </c>
     </row>
     <row r="163" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I163" s="14" t="str">
+      <c r="I163" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -10522,7 +11020,7 @@
       </c>
     </row>
     <row r="164" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I164" s="14" t="str">
+      <c r="I164" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -10580,7 +11078,7 @@
       </c>
     </row>
     <row r="165" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I165" s="14" t="str">
+      <c r="I165" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -10638,7 +11136,7 @@
       </c>
     </row>
     <row r="166" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I166" s="14" t="str">
+      <c r="I166" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -10696,7 +11194,7 @@
       </c>
     </row>
     <row r="167" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I167" s="14" t="str">
+      <c r="I167" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -10754,7 +11252,7 @@
       </c>
     </row>
     <row r="168" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I168" s="14" t="str">
+      <c r="I168" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -10812,7 +11310,7 @@
       </c>
     </row>
     <row r="169" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I169" s="14" t="str">
+      <c r="I169" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -10870,7 +11368,7 @@
       </c>
     </row>
     <row r="170" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I170" s="14" t="str">
+      <c r="I170" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -10928,7 +11426,7 @@
       </c>
     </row>
     <row r="171" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I171" s="14" t="str">
+      <c r="I171" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -10986,7 +11484,7 @@
       </c>
     </row>
     <row r="172" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I172" s="14" t="str">
+      <c r="I172" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -11044,7 +11542,7 @@
       </c>
     </row>
     <row r="173" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I173" s="14" t="str">
+      <c r="I173" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -11102,7 +11600,7 @@
       </c>
     </row>
     <row r="174" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I174" s="14" t="str">
+      <c r="I174" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -11160,7 +11658,7 @@
       </c>
     </row>
     <row r="175" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I175" s="14" t="str">
+      <c r="I175" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -11218,7 +11716,7 @@
       </c>
     </row>
     <row r="176" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I176" s="14" t="str">
+      <c r="I176" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -11276,7 +11774,7 @@
       </c>
     </row>
     <row r="177" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I177" s="14" t="str">
+      <c r="I177" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -11334,7 +11832,7 @@
       </c>
     </row>
     <row r="178" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I178" s="14" t="str">
+      <c r="I178" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -11392,7 +11890,7 @@
       </c>
     </row>
     <row r="179" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I179" s="14" t="str">
+      <c r="I179" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -11450,7 +11948,7 @@
       </c>
     </row>
     <row r="180" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I180" s="14" t="str">
+      <c r="I180" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -11508,7 +12006,7 @@
       </c>
     </row>
     <row r="181" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I181" s="14" t="str">
+      <c r="I181" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -11566,7 +12064,7 @@
       </c>
     </row>
     <row r="182" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I182" s="14" t="str">
+      <c r="I182" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -11624,7 +12122,7 @@
       </c>
     </row>
     <row r="183" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I183" s="14" t="str">
+      <c r="I183" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -11682,7 +12180,7 @@
       </c>
     </row>
     <row r="184" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I184" s="14" t="str">
+      <c r="I184" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -11740,7 +12238,7 @@
       </c>
     </row>
     <row r="185" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I185" s="14" t="str">
+      <c r="I185" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -11798,7 +12296,7 @@
       </c>
     </row>
     <row r="186" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I186" s="14" t="str">
+      <c r="I186" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -11856,7 +12354,7 @@
       </c>
     </row>
     <row r="187" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I187" s="14" t="str">
+      <c r="I187" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -11914,7 +12412,7 @@
       </c>
     </row>
     <row r="188" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I188" s="14" t="str">
+      <c r="I188" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -11972,7 +12470,7 @@
       </c>
     </row>
     <row r="189" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I189" s="14" t="str">
+      <c r="I189" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -12030,7 +12528,7 @@
       </c>
     </row>
     <row r="190" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I190" s="14" t="str">
+      <c r="I190" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -12088,7 +12586,7 @@
       </c>
     </row>
     <row r="191" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I191" s="14" t="str">
+      <c r="I191" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -12146,7 +12644,7 @@
       </c>
     </row>
     <row r="192" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I192" s="14" t="str">
+      <c r="I192" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -12204,7 +12702,7 @@
       </c>
     </row>
     <row r="193" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I193" s="14" t="str">
+      <c r="I193" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -12262,7 +12760,7 @@
       </c>
     </row>
     <row r="194" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I194" s="14" t="str">
+      <c r="I194" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -12320,7 +12818,7 @@
       </c>
     </row>
     <row r="195" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I195" s="14" t="str">
+      <c r="I195" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -12378,7 +12876,7 @@
       </c>
     </row>
     <row r="196" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I196" s="14" t="str">
+      <c r="I196" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -12436,7 +12934,7 @@
       </c>
     </row>
     <row r="197" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I197" s="14" t="str">
+      <c r="I197" s="13" t="str">
         <f t="shared" ref="I197:I260" si="48">IF(AND(ISNUMBER(xBid),ISNUMBER(xAsk)),(xAsk-xBid)/2 +xBid, IF(AND(ISNUMBER(Bid),ISNUMBER(Ask)),(Ask-Bid)/2 +Bid, IF(ISNUMBER(Last), Last,"")))</f>
         <v/>
       </c>
@@ -12494,7 +12992,7 @@
       </c>
     </row>
     <row r="198" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I198" s="14" t="str">
+      <c r="I198" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -12552,7 +13050,7 @@
       </c>
     </row>
     <row r="199" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I199" s="14" t="str">
+      <c r="I199" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -12610,7 +13108,7 @@
       </c>
     </row>
     <row r="200" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I200" s="14" t="str">
+      <c r="I200" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -12668,7 +13166,7 @@
       </c>
     </row>
     <row r="201" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I201" s="14" t="str">
+      <c r="I201" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -12726,7 +13224,7 @@
       </c>
     </row>
     <row r="202" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I202" s="14" t="str">
+      <c r="I202" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -12784,7 +13282,7 @@
       </c>
     </row>
     <row r="203" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I203" s="14" t="str">
+      <c r="I203" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -12842,7 +13340,7 @@
       </c>
     </row>
     <row r="204" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I204" s="14" t="str">
+      <c r="I204" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -12900,7 +13398,7 @@
       </c>
     </row>
     <row r="205" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I205" s="14" t="str">
+      <c r="I205" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -12958,7 +13456,7 @@
       </c>
     </row>
     <row r="206" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I206" s="14" t="str">
+      <c r="I206" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -13016,7 +13514,7 @@
       </c>
     </row>
     <row r="207" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I207" s="14" t="str">
+      <c r="I207" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -13074,7 +13572,7 @@
       </c>
     </row>
     <row r="208" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I208" s="14" t="str">
+      <c r="I208" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -13132,7 +13630,7 @@
       </c>
     </row>
     <row r="209" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I209" s="14" t="str">
+      <c r="I209" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -13190,7 +13688,7 @@
       </c>
     </row>
     <row r="210" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I210" s="14" t="str">
+      <c r="I210" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -13248,7 +13746,7 @@
       </c>
     </row>
     <row r="211" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I211" s="14" t="str">
+      <c r="I211" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -13306,7 +13804,7 @@
       </c>
     </row>
     <row r="212" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I212" s="14" t="str">
+      <c r="I212" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -13364,7 +13862,7 @@
       </c>
     </row>
     <row r="213" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I213" s="14" t="str">
+      <c r="I213" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -13422,7 +13920,7 @@
       </c>
     </row>
     <row r="214" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I214" s="14" t="str">
+      <c r="I214" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -13480,7 +13978,7 @@
       </c>
     </row>
     <row r="215" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I215" s="14" t="str">
+      <c r="I215" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -13538,7 +14036,7 @@
       </c>
     </row>
     <row r="216" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I216" s="14" t="str">
+      <c r="I216" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -13596,7 +14094,7 @@
       </c>
     </row>
     <row r="217" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I217" s="14" t="str">
+      <c r="I217" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -13654,7 +14152,7 @@
       </c>
     </row>
     <row r="218" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I218" s="14" t="str">
+      <c r="I218" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -13712,7 +14210,7 @@
       </c>
     </row>
     <row r="219" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I219" s="14" t="str">
+      <c r="I219" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -13770,7 +14268,7 @@
       </c>
     </row>
     <row r="220" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I220" s="14" t="str">
+      <c r="I220" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -13828,7 +14326,7 @@
       </c>
     </row>
     <row r="221" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I221" s="14" t="str">
+      <c r="I221" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -13886,7 +14384,7 @@
       </c>
     </row>
     <row r="222" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I222" s="14" t="str">
+      <c r="I222" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -13944,7 +14442,7 @@
       </c>
     </row>
     <row r="223" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I223" s="14" t="str">
+      <c r="I223" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -14002,7 +14500,7 @@
       </c>
     </row>
     <row r="224" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I224" s="14" t="str">
+      <c r="I224" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -14060,7 +14558,7 @@
       </c>
     </row>
     <row r="225" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I225" s="14" t="str">
+      <c r="I225" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -14118,7 +14616,7 @@
       </c>
     </row>
     <row r="226" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I226" s="14" t="str">
+      <c r="I226" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -14176,7 +14674,7 @@
       </c>
     </row>
     <row r="227" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I227" s="14" t="str">
+      <c r="I227" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -14234,7 +14732,7 @@
       </c>
     </row>
     <row r="228" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I228" s="14" t="str">
+      <c r="I228" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -14292,7 +14790,7 @@
       </c>
     </row>
     <row r="229" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I229" s="14" t="str">
+      <c r="I229" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -14350,7 +14848,7 @@
       </c>
     </row>
     <row r="230" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I230" s="14" t="str">
+      <c r="I230" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -14408,7 +14906,7 @@
       </c>
     </row>
     <row r="231" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I231" s="14" t="str">
+      <c r="I231" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -14466,7 +14964,7 @@
       </c>
     </row>
     <row r="232" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I232" s="14" t="str">
+      <c r="I232" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -14524,7 +15022,7 @@
       </c>
     </row>
     <row r="233" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I233" s="14" t="str">
+      <c r="I233" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -14582,7 +15080,7 @@
       </c>
     </row>
     <row r="234" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I234" s="14" t="str">
+      <c r="I234" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -14640,7 +15138,7 @@
       </c>
     </row>
     <row r="235" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I235" s="14" t="str">
+      <c r="I235" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -14698,7 +15196,7 @@
       </c>
     </row>
     <row r="236" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I236" s="14" t="str">
+      <c r="I236" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -14756,7 +15254,7 @@
       </c>
     </row>
     <row r="237" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I237" s="14" t="str">
+      <c r="I237" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -14814,7 +15312,7 @@
       </c>
     </row>
     <row r="238" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I238" s="14" t="str">
+      <c r="I238" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -14872,7 +15370,7 @@
       </c>
     </row>
     <row r="239" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I239" s="14" t="str">
+      <c r="I239" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -14930,7 +15428,7 @@
       </c>
     </row>
     <row r="240" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I240" s="14" t="str">
+      <c r="I240" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -14988,7 +15486,7 @@
       </c>
     </row>
     <row r="241" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I241" s="14" t="str">
+      <c r="I241" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -15046,7 +15544,7 @@
       </c>
     </row>
     <row r="242" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I242" s="14" t="str">
+      <c r="I242" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -15104,7 +15602,7 @@
       </c>
     </row>
     <row r="243" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I243" s="14" t="str">
+      <c r="I243" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -15162,7 +15660,7 @@
       </c>
     </row>
     <row r="244" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I244" s="14" t="str">
+      <c r="I244" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -15220,7 +15718,7 @@
       </c>
     </row>
     <row r="245" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I245" s="14" t="str">
+      <c r="I245" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -15278,7 +15776,7 @@
       </c>
     </row>
     <row r="246" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I246" s="14" t="str">
+      <c r="I246" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -15336,7 +15834,7 @@
       </c>
     </row>
     <row r="247" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I247" s="14" t="str">
+      <c r="I247" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -15394,7 +15892,7 @@
       </c>
     </row>
     <row r="248" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I248" s="14" t="str">
+      <c r="I248" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -15452,7 +15950,7 @@
       </c>
     </row>
     <row r="249" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I249" s="14" t="str">
+      <c r="I249" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -15510,7 +16008,7 @@
       </c>
     </row>
     <row r="250" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I250" s="14" t="str">
+      <c r="I250" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -15568,7 +16066,7 @@
       </c>
     </row>
     <row r="251" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I251" s="14" t="str">
+      <c r="I251" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -15626,7 +16124,7 @@
       </c>
     </row>
     <row r="252" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I252" s="14" t="str">
+      <c r="I252" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -15684,7 +16182,7 @@
       </c>
     </row>
     <row r="253" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I253" s="14" t="str">
+      <c r="I253" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -15742,7 +16240,7 @@
       </c>
     </row>
     <row r="254" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I254" s="14" t="str">
+      <c r="I254" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -15800,7 +16298,7 @@
       </c>
     </row>
     <row r="255" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I255" s="14" t="str">
+      <c r="I255" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -15858,7 +16356,7 @@
       </c>
     </row>
     <row r="256" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I256" s="14" t="str">
+      <c r="I256" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -15916,7 +16414,7 @@
       </c>
     </row>
     <row r="257" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I257" s="14" t="str">
+      <c r="I257" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -15974,7 +16472,7 @@
       </c>
     </row>
     <row r="258" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I258" s="14" t="str">
+      <c r="I258" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -16032,7 +16530,7 @@
       </c>
     </row>
     <row r="259" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I259" s="14" t="str">
+      <c r="I259" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -16090,7 +16588,7 @@
       </c>
     </row>
     <row r="260" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I260" s="14" t="str">
+      <c r="I260" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -16148,7 +16646,7 @@
       </c>
     </row>
     <row r="261" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I261" s="14" t="str">
+      <c r="I261" s="13" t="str">
         <f t="shared" ref="I261:I300" si="62">IF(AND(ISNUMBER(xBid),ISNUMBER(xAsk)),(xAsk-xBid)/2 +xBid, IF(AND(ISNUMBER(Bid),ISNUMBER(Ask)),(Ask-Bid)/2 +Bid, IF(ISNUMBER(Last), Last,"")))</f>
         <v/>
       </c>
@@ -16206,7 +16704,7 @@
       </c>
     </row>
     <row r="262" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I262" s="14" t="str">
+      <c r="I262" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -16264,7 +16762,7 @@
       </c>
     </row>
     <row r="263" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I263" s="14" t="str">
+      <c r="I263" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -16322,7 +16820,7 @@
       </c>
     </row>
     <row r="264" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I264" s="14" t="str">
+      <c r="I264" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -16380,7 +16878,7 @@
       </c>
     </row>
     <row r="265" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I265" s="14" t="str">
+      <c r="I265" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -16438,7 +16936,7 @@
       </c>
     </row>
     <row r="266" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I266" s="14" t="str">
+      <c r="I266" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -16496,7 +16994,7 @@
       </c>
     </row>
     <row r="267" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I267" s="14" t="str">
+      <c r="I267" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -16554,7 +17052,7 @@
       </c>
     </row>
     <row r="268" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I268" s="14" t="str">
+      <c r="I268" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -16612,7 +17110,7 @@
       </c>
     </row>
     <row r="269" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I269" s="14" t="str">
+      <c r="I269" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -16670,7 +17168,7 @@
       </c>
     </row>
     <row r="270" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I270" s="14" t="str">
+      <c r="I270" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -16728,7 +17226,7 @@
       </c>
     </row>
     <row r="271" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I271" s="14" t="str">
+      <c r="I271" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -16786,7 +17284,7 @@
       </c>
     </row>
     <row r="272" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I272" s="14" t="str">
+      <c r="I272" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -16844,7 +17342,7 @@
       </c>
     </row>
     <row r="273" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I273" s="14" t="str">
+      <c r="I273" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -16902,7 +17400,7 @@
       </c>
     </row>
     <row r="274" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I274" s="14" t="str">
+      <c r="I274" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -16960,7 +17458,7 @@
       </c>
     </row>
     <row r="275" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I275" s="14" t="str">
+      <c r="I275" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -17018,7 +17516,7 @@
       </c>
     </row>
     <row r="276" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I276" s="14" t="str">
+      <c r="I276" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -17076,7 +17574,7 @@
       </c>
     </row>
     <row r="277" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I277" s="14" t="str">
+      <c r="I277" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -17134,7 +17632,7 @@
       </c>
     </row>
     <row r="278" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I278" s="14" t="str">
+      <c r="I278" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -17192,7 +17690,7 @@
       </c>
     </row>
     <row r="279" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I279" s="14" t="str">
+      <c r="I279" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -17250,7 +17748,7 @@
       </c>
     </row>
     <row r="280" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I280" s="14" t="str">
+      <c r="I280" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -17308,7 +17806,7 @@
       </c>
     </row>
     <row r="281" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I281" s="14" t="str">
+      <c r="I281" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -17366,7 +17864,7 @@
       </c>
     </row>
     <row r="282" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I282" s="14" t="str">
+      <c r="I282" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -17424,7 +17922,7 @@
       </c>
     </row>
     <row r="283" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I283" s="14" t="str">
+      <c r="I283" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -17482,7 +17980,7 @@
       </c>
     </row>
     <row r="284" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I284" s="14" t="str">
+      <c r="I284" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -17540,7 +18038,7 @@
       </c>
     </row>
     <row r="285" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I285" s="14" t="str">
+      <c r="I285" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -17598,7 +18096,7 @@
       </c>
     </row>
     <row r="286" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I286" s="14" t="str">
+      <c r="I286" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -17656,7 +18154,7 @@
       </c>
     </row>
     <row r="287" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I287" s="14" t="str">
+      <c r="I287" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -17714,7 +18212,7 @@
       </c>
     </row>
     <row r="288" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I288" s="14" t="str">
+      <c r="I288" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -17772,7 +18270,7 @@
       </c>
     </row>
     <row r="289" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I289" s="14" t="str">
+      <c r="I289" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -17830,7 +18328,7 @@
       </c>
     </row>
     <row r="290" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I290" s="14" t="str">
+      <c r="I290" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -17888,7 +18386,7 @@
       </c>
     </row>
     <row r="291" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I291" s="14" t="str">
+      <c r="I291" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -17946,7 +18444,7 @@
       </c>
     </row>
     <row r="292" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I292" s="14" t="str">
+      <c r="I292" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -18004,7 +18502,7 @@
       </c>
     </row>
     <row r="293" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I293" s="14" t="str">
+      <c r="I293" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -18062,7 +18560,7 @@
       </c>
     </row>
     <row r="294" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I294" s="14" t="str">
+      <c r="I294" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -18120,7 +18618,7 @@
       </c>
     </row>
     <row r="295" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I295" s="14" t="str">
+      <c r="I295" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -18178,7 +18676,7 @@
       </c>
     </row>
     <row r="296" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I296" s="14" t="str">
+      <c r="I296" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -18236,7 +18734,7 @@
       </c>
     </row>
     <row r="297" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I297" s="14" t="str">
+      <c r="I297" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -18294,7 +18792,7 @@
       </c>
     </row>
     <row r="298" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I298" s="14" t="str">
+      <c r="I298" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -18352,7 +18850,7 @@
       </c>
     </row>
     <row r="299" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I299" s="14" t="str">
+      <c r="I299" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -18410,7 +18908,7 @@
       </c>
     </row>
     <row r="300" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I300" s="14" t="str">
+      <c r="I300" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -18485,19 +18983,19 @@
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" customWidth="1"/>
     <col min="5" max="6" width="5" customWidth="1"/>
     <col min="7" max="7" width="3.85546875" customWidth="1"/>
     <col min="8" max="8" width="6.7109375" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" style="14" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" style="13" customWidth="1"/>
     <col min="10" max="10" width="5.5703125" customWidth="1"/>
     <col min="11" max="11" width="5.42578125" customWidth="1"/>
     <col min="12" max="12" width="6.7109375" customWidth="1"/>
@@ -18519,43 +19017,43 @@
   <sheetData>
     <row r="1" spans="1:25" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="N1" s="9">
         <f>LastPrice* (1+O1)</f>
@@ -18611,52 +19109,52 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="17"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="18"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I4" s="14" t="str">
+      <c r="I4" s="13" t="str">
         <f t="shared" ref="I4:I68" si="0">IF(AND(ISNUMBER(xBid),ISNUMBER(xAsk)),(xAsk-xBid)/2 +xBid, IF(AND(ISNUMBER(Bid),ISNUMBER(Ask)),(Ask-Bid)/2 +Bid, IF(ISNUMBER(Last), Last,"")))</f>
         <v/>
       </c>
@@ -18714,7 +19212,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I5" s="14" t="str">
+      <c r="I5" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -18772,7 +19270,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I6" s="14" t="str">
+      <c r="I6" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -18830,7 +19328,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I7" s="14" t="str">
+      <c r="I7" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -18888,7 +19386,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I8" s="14" t="str">
+      <c r="I8" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -18946,7 +19444,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I9" s="14" t="str">
+      <c r="I9" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -19004,7 +19502,7 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I10" s="14" t="str">
+      <c r="I10" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -19062,7 +19560,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I11" s="14" t="str">
+      <c r="I11" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -19120,7 +19618,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I12" s="14" t="str">
+      <c r="I12" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -19178,7 +19676,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I13" s="14" t="str">
+      <c r="I13" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -19236,7 +19734,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I14" s="14" t="str">
+      <c r="I14" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -19294,7 +19792,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I15" s="14" t="str">
+      <c r="I15" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -19352,7 +19850,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I16" s="14" t="str">
+      <c r="I16" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -19410,7 +19908,7 @@
       </c>
     </row>
     <row r="17" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I17" s="14" t="str">
+      <c r="I17" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -19468,7 +19966,7 @@
       </c>
     </row>
     <row r="18" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I18" s="14" t="str">
+      <c r="I18" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -19526,7 +20024,7 @@
       </c>
     </row>
     <row r="19" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I19" s="14" t="str">
+      <c r="I19" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -19584,7 +20082,7 @@
       </c>
     </row>
     <row r="20" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I20" s="14" t="str">
+      <c r="I20" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -19642,7 +20140,7 @@
       </c>
     </row>
     <row r="21" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I21" s="14" t="str">
+      <c r="I21" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -19700,7 +20198,7 @@
       </c>
     </row>
     <row r="22" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I22" s="14" t="str">
+      <c r="I22" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -19758,7 +20256,7 @@
       </c>
     </row>
     <row r="23" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I23" s="14" t="str">
+      <c r="I23" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -19816,7 +20314,7 @@
       </c>
     </row>
     <row r="24" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I24" s="14" t="str">
+      <c r="I24" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -19874,7 +20372,7 @@
       </c>
     </row>
     <row r="25" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I25" s="14" t="str">
+      <c r="I25" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -19932,7 +20430,7 @@
       </c>
     </row>
     <row r="26" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I26" s="14" t="str">
+      <c r="I26" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -19990,7 +20488,7 @@
       </c>
     </row>
     <row r="27" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I27" s="14" t="str">
+      <c r="I27" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -20048,7 +20546,7 @@
       </c>
     </row>
     <row r="28" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I28" s="14" t="str">
+      <c r="I28" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -20106,7 +20604,7 @@
       </c>
     </row>
     <row r="29" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I29" s="14" t="str">
+      <c r="I29" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -20164,7 +20662,7 @@
       </c>
     </row>
     <row r="30" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I30" s="14" t="str">
+      <c r="I30" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -20222,7 +20720,7 @@
       </c>
     </row>
     <row r="31" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I31" s="14" t="str">
+      <c r="I31" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -20280,7 +20778,7 @@
       </c>
     </row>
     <row r="32" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I32" s="14" t="str">
+      <c r="I32" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -20338,7 +20836,7 @@
       </c>
     </row>
     <row r="33" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I33" s="14" t="str">
+      <c r="I33" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -20396,7 +20894,7 @@
       </c>
     </row>
     <row r="34" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I34" s="14" t="str">
+      <c r="I34" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -20454,7 +20952,7 @@
       </c>
     </row>
     <row r="35" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I35" s="14" t="str">
+      <c r="I35" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -20512,7 +21010,7 @@
       </c>
     </row>
     <row r="36" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I36" s="14" t="str">
+      <c r="I36" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -20570,7 +21068,7 @@
       </c>
     </row>
     <row r="37" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I37" s="14" t="str">
+      <c r="I37" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -20628,7 +21126,7 @@
       </c>
     </row>
     <row r="38" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I38" s="14" t="str">
+      <c r="I38" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -20686,7 +21184,7 @@
       </c>
     </row>
     <row r="39" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I39" s="14" t="str">
+      <c r="I39" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -20744,7 +21242,7 @@
       </c>
     </row>
     <row r="40" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I40" s="14" t="str">
+      <c r="I40" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -20802,7 +21300,7 @@
       </c>
     </row>
     <row r="41" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I41" s="14" t="str">
+      <c r="I41" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -20860,7 +21358,7 @@
       </c>
     </row>
     <row r="42" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I42" s="14" t="str">
+      <c r="I42" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -20918,7 +21416,7 @@
       </c>
     </row>
     <row r="43" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I43" s="14" t="str">
+      <c r="I43" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -20976,7 +21474,7 @@
       </c>
     </row>
     <row r="44" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I44" s="14" t="str">
+      <c r="I44" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -21034,7 +21532,7 @@
       </c>
     </row>
     <row r="45" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I45" s="14" t="str">
+      <c r="I45" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -21092,7 +21590,7 @@
       </c>
     </row>
     <row r="46" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I46" s="14" t="str">
+      <c r="I46" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -21150,7 +21648,7 @@
       </c>
     </row>
     <row r="47" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I47" s="14" t="str">
+      <c r="I47" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -21208,7 +21706,7 @@
       </c>
     </row>
     <row r="48" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I48" s="14" t="str">
+      <c r="I48" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -21266,7 +21764,7 @@
       </c>
     </row>
     <row r="49" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I49" s="14" t="str">
+      <c r="I49" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -21324,7 +21822,7 @@
       </c>
     </row>
     <row r="50" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I50" s="14" t="str">
+      <c r="I50" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -21382,7 +21880,7 @@
       </c>
     </row>
     <row r="51" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I51" s="14" t="str">
+      <c r="I51" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -21440,7 +21938,7 @@
       </c>
     </row>
     <row r="52" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I52" s="14" t="str">
+      <c r="I52" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -21498,7 +21996,7 @@
       </c>
     </row>
     <row r="53" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I53" s="14" t="str">
+      <c r="I53" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -21556,7 +22054,7 @@
       </c>
     </row>
     <row r="54" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I54" s="14" t="str">
+      <c r="I54" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -21614,7 +22112,7 @@
       </c>
     </row>
     <row r="55" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I55" s="14" t="str">
+      <c r="I55" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -21672,7 +22170,7 @@
       </c>
     </row>
     <row r="56" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I56" s="14" t="str">
+      <c r="I56" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -21730,7 +22228,7 @@
       </c>
     </row>
     <row r="57" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I57" s="14" t="str">
+      <c r="I57" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -21788,7 +22286,7 @@
       </c>
     </row>
     <row r="58" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I58" s="14" t="str">
+      <c r="I58" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -21846,7 +22344,7 @@
       </c>
     </row>
     <row r="59" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I59" s="14" t="str">
+      <c r="I59" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -21904,7 +22402,7 @@
       </c>
     </row>
     <row r="60" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I60" s="14" t="str">
+      <c r="I60" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -21962,7 +22460,7 @@
       </c>
     </row>
     <row r="61" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I61" s="14" t="str">
+      <c r="I61" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -22020,7 +22518,7 @@
       </c>
     </row>
     <row r="62" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I62" s="14" t="str">
+      <c r="I62" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -22078,7 +22576,7 @@
       </c>
     </row>
     <row r="63" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I63" s="14" t="str">
+      <c r="I63" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -22136,7 +22634,7 @@
       </c>
     </row>
     <row r="64" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I64" s="14" t="str">
+      <c r="I64" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -22194,7 +22692,7 @@
       </c>
     </row>
     <row r="65" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I65" s="14" t="str">
+      <c r="I65" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -22252,7 +22750,7 @@
       </c>
     </row>
     <row r="66" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I66" s="14" t="str">
+      <c r="I66" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -22310,7 +22808,7 @@
       </c>
     </row>
     <row r="67" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I67" s="14" t="str">
+      <c r="I67" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -22368,7 +22866,7 @@
       </c>
     </row>
     <row r="68" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I68" s="14" t="str">
+      <c r="I68" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -22426,7 +22924,7 @@
       </c>
     </row>
     <row r="69" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I69" s="14" t="str">
+      <c r="I69" s="13" t="str">
         <f t="shared" ref="I69:I132" si="20">IF(AND(ISNUMBER(xBid),ISNUMBER(xAsk)),(xAsk-xBid)/2 +xBid, IF(AND(ISNUMBER(Bid),ISNUMBER(Ask)),(Ask-Bid)/2 +Bid, IF(ISNUMBER(Last), Last,"")))</f>
         <v/>
       </c>
@@ -22484,7 +22982,7 @@
       </c>
     </row>
     <row r="70" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I70" s="14" t="str">
+      <c r="I70" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -22542,7 +23040,7 @@
       </c>
     </row>
     <row r="71" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I71" s="14" t="str">
+      <c r="I71" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -22600,7 +23098,7 @@
       </c>
     </row>
     <row r="72" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I72" s="14" t="str">
+      <c r="I72" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -22658,7 +23156,7 @@
       </c>
     </row>
     <row r="73" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I73" s="14" t="str">
+      <c r="I73" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -22716,7 +23214,7 @@
       </c>
     </row>
     <row r="74" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I74" s="14" t="str">
+      <c r="I74" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -22774,7 +23272,7 @@
       </c>
     </row>
     <row r="75" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I75" s="14" t="str">
+      <c r="I75" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -22832,7 +23330,7 @@
       </c>
     </row>
     <row r="76" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I76" s="14" t="str">
+      <c r="I76" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -22890,7 +23388,7 @@
       </c>
     </row>
     <row r="77" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I77" s="14" t="str">
+      <c r="I77" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -22948,7 +23446,7 @@
       </c>
     </row>
     <row r="78" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I78" s="14" t="str">
+      <c r="I78" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -23006,7 +23504,7 @@
       </c>
     </row>
     <row r="79" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I79" s="14" t="str">
+      <c r="I79" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -23064,7 +23562,7 @@
       </c>
     </row>
     <row r="80" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I80" s="14" t="str">
+      <c r="I80" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -23122,7 +23620,7 @@
       </c>
     </row>
     <row r="81" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I81" s="14" t="str">
+      <c r="I81" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -23180,7 +23678,7 @@
       </c>
     </row>
     <row r="82" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I82" s="14" t="str">
+      <c r="I82" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -23238,7 +23736,7 @@
       </c>
     </row>
     <row r="83" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I83" s="14" t="str">
+      <c r="I83" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -23296,7 +23794,7 @@
       </c>
     </row>
     <row r="84" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I84" s="14" t="str">
+      <c r="I84" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -23354,7 +23852,7 @@
       </c>
     </row>
     <row r="85" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I85" s="14" t="str">
+      <c r="I85" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -23412,7 +23910,7 @@
       </c>
     </row>
     <row r="86" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I86" s="14" t="str">
+      <c r="I86" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -23470,7 +23968,7 @@
       </c>
     </row>
     <row r="87" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I87" s="14" t="str">
+      <c r="I87" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -23528,7 +24026,7 @@
       </c>
     </row>
     <row r="88" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I88" s="14" t="str">
+      <c r="I88" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -23586,7 +24084,7 @@
       </c>
     </row>
     <row r="89" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I89" s="14" t="str">
+      <c r="I89" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -23644,7 +24142,7 @@
       </c>
     </row>
     <row r="90" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I90" s="14" t="str">
+      <c r="I90" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -23702,7 +24200,7 @@
       </c>
     </row>
     <row r="91" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I91" s="14" t="str">
+      <c r="I91" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -23760,7 +24258,7 @@
       </c>
     </row>
     <row r="92" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I92" s="14" t="str">
+      <c r="I92" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -23818,7 +24316,7 @@
       </c>
     </row>
     <row r="93" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I93" s="14" t="str">
+      <c r="I93" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -23876,7 +24374,7 @@
       </c>
     </row>
     <row r="94" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I94" s="14" t="str">
+      <c r="I94" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -23934,7 +24432,7 @@
       </c>
     </row>
     <row r="95" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I95" s="14" t="str">
+      <c r="I95" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -23992,7 +24490,7 @@
       </c>
     </row>
     <row r="96" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I96" s="14" t="str">
+      <c r="I96" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -24050,7 +24548,7 @@
       </c>
     </row>
     <row r="97" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I97" s="14" t="str">
+      <c r="I97" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -24108,7 +24606,7 @@
       </c>
     </row>
     <row r="98" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I98" s="14" t="str">
+      <c r="I98" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -24166,7 +24664,7 @@
       </c>
     </row>
     <row r="99" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I99" s="14" t="str">
+      <c r="I99" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -24224,7 +24722,7 @@
       </c>
     </row>
     <row r="100" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I100" s="14" t="str">
+      <c r="I100" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -24282,7 +24780,7 @@
       </c>
     </row>
     <row r="101" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I101" s="14" t="str">
+      <c r="I101" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -24340,7 +24838,7 @@
       </c>
     </row>
     <row r="102" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I102" s="14" t="str">
+      <c r="I102" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -24398,7 +24896,7 @@
       </c>
     </row>
     <row r="103" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I103" s="14" t="str">
+      <c r="I103" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -24456,7 +24954,7 @@
       </c>
     </row>
     <row r="104" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I104" s="14" t="str">
+      <c r="I104" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -24514,7 +25012,7 @@
       </c>
     </row>
     <row r="105" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I105" s="14" t="str">
+      <c r="I105" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -24572,7 +25070,7 @@
       </c>
     </row>
     <row r="106" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I106" s="14" t="str">
+      <c r="I106" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -24630,7 +25128,7 @@
       </c>
     </row>
     <row r="107" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I107" s="14" t="str">
+      <c r="I107" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -24688,7 +25186,7 @@
       </c>
     </row>
     <row r="108" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I108" s="14" t="str">
+      <c r="I108" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -24746,7 +25244,7 @@
       </c>
     </row>
     <row r="109" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I109" s="14" t="str">
+      <c r="I109" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -24804,7 +25302,7 @@
       </c>
     </row>
     <row r="110" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I110" s="14" t="str">
+      <c r="I110" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -24862,7 +25360,7 @@
       </c>
     </row>
     <row r="111" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I111" s="14" t="str">
+      <c r="I111" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -24920,7 +25418,7 @@
       </c>
     </row>
     <row r="112" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I112" s="14" t="str">
+      <c r="I112" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -24978,7 +25476,7 @@
       </c>
     </row>
     <row r="113" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I113" s="14" t="str">
+      <c r="I113" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -25036,7 +25534,7 @@
       </c>
     </row>
     <row r="114" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I114" s="14" t="str">
+      <c r="I114" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -25094,7 +25592,7 @@
       </c>
     </row>
     <row r="115" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I115" s="14" t="str">
+      <c r="I115" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -25152,7 +25650,7 @@
       </c>
     </row>
     <row r="116" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I116" s="14" t="str">
+      <c r="I116" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -25210,7 +25708,7 @@
       </c>
     </row>
     <row r="117" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I117" s="14" t="str">
+      <c r="I117" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -25268,7 +25766,7 @@
       </c>
     </row>
     <row r="118" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I118" s="14" t="str">
+      <c r="I118" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -25326,7 +25824,7 @@
       </c>
     </row>
     <row r="119" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I119" s="14" t="str">
+      <c r="I119" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -25384,7 +25882,7 @@
       </c>
     </row>
     <row r="120" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I120" s="14" t="str">
+      <c r="I120" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -25442,7 +25940,7 @@
       </c>
     </row>
     <row r="121" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I121" s="14" t="str">
+      <c r="I121" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -25500,7 +25998,7 @@
       </c>
     </row>
     <row r="122" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I122" s="14" t="str">
+      <c r="I122" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -25558,7 +26056,7 @@
       </c>
     </row>
     <row r="123" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I123" s="14" t="str">
+      <c r="I123" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -25616,7 +26114,7 @@
       </c>
     </row>
     <row r="124" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I124" s="14" t="str">
+      <c r="I124" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -25674,7 +26172,7 @@
       </c>
     </row>
     <row r="125" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I125" s="14" t="str">
+      <c r="I125" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -25732,7 +26230,7 @@
       </c>
     </row>
     <row r="126" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I126" s="14" t="str">
+      <c r="I126" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -25790,7 +26288,7 @@
       </c>
     </row>
     <row r="127" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I127" s="14" t="str">
+      <c r="I127" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -25848,7 +26346,7 @@
       </c>
     </row>
     <row r="128" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I128" s="14" t="str">
+      <c r="I128" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -25906,7 +26404,7 @@
       </c>
     </row>
     <row r="129" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I129" s="14" t="str">
+      <c r="I129" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -25964,7 +26462,7 @@
       </c>
     </row>
     <row r="130" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I130" s="14" t="str">
+      <c r="I130" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -26022,7 +26520,7 @@
       </c>
     </row>
     <row r="131" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I131" s="14" t="str">
+      <c r="I131" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -26080,7 +26578,7 @@
       </c>
     </row>
     <row r="132" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I132" s="14" t="str">
+      <c r="I132" s="13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -26138,7 +26636,7 @@
       </c>
     </row>
     <row r="133" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I133" s="14" t="str">
+      <c r="I133" s="13" t="str">
         <f t="shared" ref="I133:I196" si="34">IF(AND(ISNUMBER(xBid),ISNUMBER(xAsk)),(xAsk-xBid)/2 +xBid, IF(AND(ISNUMBER(Bid),ISNUMBER(Ask)),(Ask-Bid)/2 +Bid, IF(ISNUMBER(Last), Last,"")))</f>
         <v/>
       </c>
@@ -26196,7 +26694,7 @@
       </c>
     </row>
     <row r="134" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I134" s="14" t="str">
+      <c r="I134" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -26254,7 +26752,7 @@
       </c>
     </row>
     <row r="135" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I135" s="14" t="str">
+      <c r="I135" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -26312,7 +26810,7 @@
       </c>
     </row>
     <row r="136" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I136" s="14" t="str">
+      <c r="I136" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -26370,7 +26868,7 @@
       </c>
     </row>
     <row r="137" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I137" s="14" t="str">
+      <c r="I137" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -26428,7 +26926,7 @@
       </c>
     </row>
     <row r="138" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I138" s="14" t="str">
+      <c r="I138" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -26486,7 +26984,7 @@
       </c>
     </row>
     <row r="139" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I139" s="14" t="str">
+      <c r="I139" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -26544,7 +27042,7 @@
       </c>
     </row>
     <row r="140" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I140" s="14" t="str">
+      <c r="I140" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -26602,7 +27100,7 @@
       </c>
     </row>
     <row r="141" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I141" s="14" t="str">
+      <c r="I141" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -26660,7 +27158,7 @@
       </c>
     </row>
     <row r="142" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I142" s="14" t="str">
+      <c r="I142" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -26718,7 +27216,7 @@
       </c>
     </row>
     <row r="143" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I143" s="14" t="str">
+      <c r="I143" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -26776,7 +27274,7 @@
       </c>
     </row>
     <row r="144" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I144" s="14" t="str">
+      <c r="I144" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -26834,7 +27332,7 @@
       </c>
     </row>
     <row r="145" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I145" s="14" t="str">
+      <c r="I145" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -26892,7 +27390,7 @@
       </c>
     </row>
     <row r="146" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I146" s="14" t="str">
+      <c r="I146" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -26950,7 +27448,7 @@
       </c>
     </row>
     <row r="147" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I147" s="14" t="str">
+      <c r="I147" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -27008,7 +27506,7 @@
       </c>
     </row>
     <row r="148" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I148" s="14" t="str">
+      <c r="I148" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -27066,7 +27564,7 @@
       </c>
     </row>
     <row r="149" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I149" s="14" t="str">
+      <c r="I149" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -27124,7 +27622,7 @@
       </c>
     </row>
     <row r="150" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I150" s="14" t="str">
+      <c r="I150" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -27182,7 +27680,7 @@
       </c>
     </row>
     <row r="151" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I151" s="14" t="str">
+      <c r="I151" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -27240,7 +27738,7 @@
       </c>
     </row>
     <row r="152" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I152" s="14" t="str">
+      <c r="I152" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -27298,7 +27796,7 @@
       </c>
     </row>
     <row r="153" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I153" s="14" t="str">
+      <c r="I153" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -27356,7 +27854,7 @@
       </c>
     </row>
     <row r="154" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I154" s="14" t="str">
+      <c r="I154" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -27414,7 +27912,7 @@
       </c>
     </row>
     <row r="155" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I155" s="14" t="str">
+      <c r="I155" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -27472,7 +27970,7 @@
       </c>
     </row>
     <row r="156" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I156" s="14" t="str">
+      <c r="I156" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -27530,7 +28028,7 @@
       </c>
     </row>
     <row r="157" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I157" s="14" t="str">
+      <c r="I157" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -27588,7 +28086,7 @@
       </c>
     </row>
     <row r="158" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I158" s="14" t="str">
+      <c r="I158" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -27646,7 +28144,7 @@
       </c>
     </row>
     <row r="159" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I159" s="14" t="str">
+      <c r="I159" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -27704,7 +28202,7 @@
       </c>
     </row>
     <row r="160" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I160" s="14" t="str">
+      <c r="I160" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -27762,7 +28260,7 @@
       </c>
     </row>
     <row r="161" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I161" s="14" t="str">
+      <c r="I161" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -27820,7 +28318,7 @@
       </c>
     </row>
     <row r="162" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I162" s="14" t="str">
+      <c r="I162" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -27878,7 +28376,7 @@
       </c>
     </row>
     <row r="163" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I163" s="14" t="str">
+      <c r="I163" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -27936,7 +28434,7 @@
       </c>
     </row>
     <row r="164" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I164" s="14" t="str">
+      <c r="I164" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -27994,7 +28492,7 @@
       </c>
     </row>
     <row r="165" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I165" s="14" t="str">
+      <c r="I165" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -28052,7 +28550,7 @@
       </c>
     </row>
     <row r="166" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I166" s="14" t="str">
+      <c r="I166" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -28110,7 +28608,7 @@
       </c>
     </row>
     <row r="167" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I167" s="14" t="str">
+      <c r="I167" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -28168,7 +28666,7 @@
       </c>
     </row>
     <row r="168" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I168" s="14" t="str">
+      <c r="I168" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -28226,7 +28724,7 @@
       </c>
     </row>
     <row r="169" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I169" s="14" t="str">
+      <c r="I169" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -28284,7 +28782,7 @@
       </c>
     </row>
     <row r="170" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I170" s="14" t="str">
+      <c r="I170" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -28342,7 +28840,7 @@
       </c>
     </row>
     <row r="171" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I171" s="14" t="str">
+      <c r="I171" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -28400,7 +28898,7 @@
       </c>
     </row>
     <row r="172" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I172" s="14" t="str">
+      <c r="I172" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -28458,7 +28956,7 @@
       </c>
     </row>
     <row r="173" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I173" s="14" t="str">
+      <c r="I173" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -28516,7 +29014,7 @@
       </c>
     </row>
     <row r="174" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I174" s="14" t="str">
+      <c r="I174" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -28574,7 +29072,7 @@
       </c>
     </row>
     <row r="175" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I175" s="14" t="str">
+      <c r="I175" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -28632,7 +29130,7 @@
       </c>
     </row>
     <row r="176" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I176" s="14" t="str">
+      <c r="I176" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -28690,7 +29188,7 @@
       </c>
     </row>
     <row r="177" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I177" s="14" t="str">
+      <c r="I177" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -28748,7 +29246,7 @@
       </c>
     </row>
     <row r="178" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I178" s="14" t="str">
+      <c r="I178" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -28806,7 +29304,7 @@
       </c>
     </row>
     <row r="179" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I179" s="14" t="str">
+      <c r="I179" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -28864,7 +29362,7 @@
       </c>
     </row>
     <row r="180" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I180" s="14" t="str">
+      <c r="I180" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -28922,7 +29420,7 @@
       </c>
     </row>
     <row r="181" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I181" s="14" t="str">
+      <c r="I181" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -28980,7 +29478,7 @@
       </c>
     </row>
     <row r="182" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I182" s="14" t="str">
+      <c r="I182" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -29038,7 +29536,7 @@
       </c>
     </row>
     <row r="183" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I183" s="14" t="str">
+      <c r="I183" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -29096,7 +29594,7 @@
       </c>
     </row>
     <row r="184" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I184" s="14" t="str">
+      <c r="I184" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -29154,7 +29652,7 @@
       </c>
     </row>
     <row r="185" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I185" s="14" t="str">
+      <c r="I185" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -29212,7 +29710,7 @@
       </c>
     </row>
     <row r="186" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I186" s="14" t="str">
+      <c r="I186" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -29270,7 +29768,7 @@
       </c>
     </row>
     <row r="187" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I187" s="14" t="str">
+      <c r="I187" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -29328,7 +29826,7 @@
       </c>
     </row>
     <row r="188" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I188" s="14" t="str">
+      <c r="I188" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -29386,7 +29884,7 @@
       </c>
     </row>
     <row r="189" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I189" s="14" t="str">
+      <c r="I189" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -29444,7 +29942,7 @@
       </c>
     </row>
     <row r="190" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I190" s="14" t="str">
+      <c r="I190" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -29502,7 +30000,7 @@
       </c>
     </row>
     <row r="191" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I191" s="14" t="str">
+      <c r="I191" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -29560,7 +30058,7 @@
       </c>
     </row>
     <row r="192" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I192" s="14" t="str">
+      <c r="I192" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -29618,7 +30116,7 @@
       </c>
     </row>
     <row r="193" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I193" s="14" t="str">
+      <c r="I193" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -29676,7 +30174,7 @@
       </c>
     </row>
     <row r="194" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I194" s="14" t="str">
+      <c r="I194" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -29734,7 +30232,7 @@
       </c>
     </row>
     <row r="195" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I195" s="14" t="str">
+      <c r="I195" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -29792,7 +30290,7 @@
       </c>
     </row>
     <row r="196" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I196" s="14" t="str">
+      <c r="I196" s="13" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -29850,7 +30348,7 @@
       </c>
     </row>
     <row r="197" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I197" s="14" t="str">
+      <c r="I197" s="13" t="str">
         <f t="shared" ref="I197:I260" si="48">IF(AND(ISNUMBER(xBid),ISNUMBER(xAsk)),(xAsk-xBid)/2 +xBid, IF(AND(ISNUMBER(Bid),ISNUMBER(Ask)),(Ask-Bid)/2 +Bid, IF(ISNUMBER(Last), Last,"")))</f>
         <v/>
       </c>
@@ -29908,7 +30406,7 @@
       </c>
     </row>
     <row r="198" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I198" s="14" t="str">
+      <c r="I198" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -29966,7 +30464,7 @@
       </c>
     </row>
     <row r="199" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I199" s="14" t="str">
+      <c r="I199" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -30024,7 +30522,7 @@
       </c>
     </row>
     <row r="200" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I200" s="14" t="str">
+      <c r="I200" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -30082,7 +30580,7 @@
       </c>
     </row>
     <row r="201" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I201" s="14" t="str">
+      <c r="I201" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -30140,7 +30638,7 @@
       </c>
     </row>
     <row r="202" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I202" s="14" t="str">
+      <c r="I202" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -30198,7 +30696,7 @@
       </c>
     </row>
     <row r="203" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I203" s="14" t="str">
+      <c r="I203" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -30256,7 +30754,7 @@
       </c>
     </row>
     <row r="204" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I204" s="14" t="str">
+      <c r="I204" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -30314,7 +30812,7 @@
       </c>
     </row>
     <row r="205" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I205" s="14" t="str">
+      <c r="I205" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -30372,7 +30870,7 @@
       </c>
     </row>
     <row r="206" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I206" s="14" t="str">
+      <c r="I206" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -30430,7 +30928,7 @@
       </c>
     </row>
     <row r="207" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I207" s="14" t="str">
+      <c r="I207" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -30488,7 +30986,7 @@
       </c>
     </row>
     <row r="208" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I208" s="14" t="str">
+      <c r="I208" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -30546,7 +31044,7 @@
       </c>
     </row>
     <row r="209" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I209" s="14" t="str">
+      <c r="I209" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -30604,7 +31102,7 @@
       </c>
     </row>
     <row r="210" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I210" s="14" t="str">
+      <c r="I210" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -30662,7 +31160,7 @@
       </c>
     </row>
     <row r="211" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I211" s="14" t="str">
+      <c r="I211" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -30720,7 +31218,7 @@
       </c>
     </row>
     <row r="212" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I212" s="14" t="str">
+      <c r="I212" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -30778,7 +31276,7 @@
       </c>
     </row>
     <row r="213" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I213" s="14" t="str">
+      <c r="I213" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -30836,7 +31334,7 @@
       </c>
     </row>
     <row r="214" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I214" s="14" t="str">
+      <c r="I214" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -30894,7 +31392,7 @@
       </c>
     </row>
     <row r="215" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I215" s="14" t="str">
+      <c r="I215" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -30952,7 +31450,7 @@
       </c>
     </row>
     <row r="216" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I216" s="14" t="str">
+      <c r="I216" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -31010,7 +31508,7 @@
       </c>
     </row>
     <row r="217" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I217" s="14" t="str">
+      <c r="I217" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -31068,7 +31566,7 @@
       </c>
     </row>
     <row r="218" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I218" s="14" t="str">
+      <c r="I218" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -31126,7 +31624,7 @@
       </c>
     </row>
     <row r="219" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I219" s="14" t="str">
+      <c r="I219" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -31184,7 +31682,7 @@
       </c>
     </row>
     <row r="220" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I220" s="14" t="str">
+      <c r="I220" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -31242,7 +31740,7 @@
       </c>
     </row>
     <row r="221" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I221" s="14" t="str">
+      <c r="I221" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -31300,7 +31798,7 @@
       </c>
     </row>
     <row r="222" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I222" s="14" t="str">
+      <c r="I222" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -31358,7 +31856,7 @@
       </c>
     </row>
     <row r="223" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I223" s="14" t="str">
+      <c r="I223" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -31416,7 +31914,7 @@
       </c>
     </row>
     <row r="224" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I224" s="14" t="str">
+      <c r="I224" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -31474,7 +31972,7 @@
       </c>
     </row>
     <row r="225" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I225" s="14" t="str">
+      <c r="I225" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -31532,7 +32030,7 @@
       </c>
     </row>
     <row r="226" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I226" s="14" t="str">
+      <c r="I226" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -31590,7 +32088,7 @@
       </c>
     </row>
     <row r="227" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I227" s="14" t="str">
+      <c r="I227" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -31648,7 +32146,7 @@
       </c>
     </row>
     <row r="228" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I228" s="14" t="str">
+      <c r="I228" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -31706,7 +32204,7 @@
       </c>
     </row>
     <row r="229" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I229" s="14" t="str">
+      <c r="I229" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -31764,7 +32262,7 @@
       </c>
     </row>
     <row r="230" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I230" s="14" t="str">
+      <c r="I230" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -31822,7 +32320,7 @@
       </c>
     </row>
     <row r="231" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I231" s="14" t="str">
+      <c r="I231" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -31880,7 +32378,7 @@
       </c>
     </row>
     <row r="232" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I232" s="14" t="str">
+      <c r="I232" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -31938,7 +32436,7 @@
       </c>
     </row>
     <row r="233" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I233" s="14" t="str">
+      <c r="I233" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -31996,7 +32494,7 @@
       </c>
     </row>
     <row r="234" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I234" s="14" t="str">
+      <c r="I234" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -32054,7 +32552,7 @@
       </c>
     </row>
     <row r="235" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I235" s="14" t="str">
+      <c r="I235" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -32112,7 +32610,7 @@
       </c>
     </row>
     <row r="236" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I236" s="14" t="str">
+      <c r="I236" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -32170,7 +32668,7 @@
       </c>
     </row>
     <row r="237" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I237" s="14" t="str">
+      <c r="I237" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -32228,7 +32726,7 @@
       </c>
     </row>
     <row r="238" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I238" s="14" t="str">
+      <c r="I238" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -32286,7 +32784,7 @@
       </c>
     </row>
     <row r="239" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I239" s="14" t="str">
+      <c r="I239" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -32344,7 +32842,7 @@
       </c>
     </row>
     <row r="240" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I240" s="14" t="str">
+      <c r="I240" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -32402,7 +32900,7 @@
       </c>
     </row>
     <row r="241" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I241" s="14" t="str">
+      <c r="I241" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -32460,7 +32958,7 @@
       </c>
     </row>
     <row r="242" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I242" s="14" t="str">
+      <c r="I242" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -32518,7 +33016,7 @@
       </c>
     </row>
     <row r="243" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I243" s="14" t="str">
+      <c r="I243" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -32576,7 +33074,7 @@
       </c>
     </row>
     <row r="244" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I244" s="14" t="str">
+      <c r="I244" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -32634,7 +33132,7 @@
       </c>
     </row>
     <row r="245" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I245" s="14" t="str">
+      <c r="I245" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -32692,7 +33190,7 @@
       </c>
     </row>
     <row r="246" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I246" s="14" t="str">
+      <c r="I246" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -32750,7 +33248,7 @@
       </c>
     </row>
     <row r="247" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I247" s="14" t="str">
+      <c r="I247" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -32808,7 +33306,7 @@
       </c>
     </row>
     <row r="248" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I248" s="14" t="str">
+      <c r="I248" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -32866,7 +33364,7 @@
       </c>
     </row>
     <row r="249" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I249" s="14" t="str">
+      <c r="I249" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -32924,7 +33422,7 @@
       </c>
     </row>
     <row r="250" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I250" s="14" t="str">
+      <c r="I250" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -32982,7 +33480,7 @@
       </c>
     </row>
     <row r="251" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I251" s="14" t="str">
+      <c r="I251" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -33040,7 +33538,7 @@
       </c>
     </row>
     <row r="252" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I252" s="14" t="str">
+      <c r="I252" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -33098,7 +33596,7 @@
       </c>
     </row>
     <row r="253" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I253" s="14" t="str">
+      <c r="I253" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -33156,7 +33654,7 @@
       </c>
     </row>
     <row r="254" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I254" s="14" t="str">
+      <c r="I254" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -33214,7 +33712,7 @@
       </c>
     </row>
     <row r="255" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I255" s="14" t="str">
+      <c r="I255" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -33272,7 +33770,7 @@
       </c>
     </row>
     <row r="256" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I256" s="14" t="str">
+      <c r="I256" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -33330,7 +33828,7 @@
       </c>
     </row>
     <row r="257" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I257" s="14" t="str">
+      <c r="I257" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -33388,7 +33886,7 @@
       </c>
     </row>
     <row r="258" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I258" s="14" t="str">
+      <c r="I258" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -33446,7 +33944,7 @@
       </c>
     </row>
     <row r="259" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I259" s="14" t="str">
+      <c r="I259" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -33504,7 +34002,7 @@
       </c>
     </row>
     <row r="260" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I260" s="14" t="str">
+      <c r="I260" s="13" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
@@ -33562,7 +34060,7 @@
       </c>
     </row>
     <row r="261" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I261" s="14" t="str">
+      <c r="I261" s="13" t="str">
         <f t="shared" ref="I261:I300" si="62">IF(AND(ISNUMBER(xBid),ISNUMBER(xAsk)),(xAsk-xBid)/2 +xBid, IF(AND(ISNUMBER(Bid),ISNUMBER(Ask)),(Ask-Bid)/2 +Bid, IF(ISNUMBER(Last), Last,"")))</f>
         <v/>
       </c>
@@ -33620,7 +34118,7 @@
       </c>
     </row>
     <row r="262" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I262" s="14" t="str">
+      <c r="I262" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -33678,7 +34176,7 @@
       </c>
     </row>
     <row r="263" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I263" s="14" t="str">
+      <c r="I263" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -33736,7 +34234,7 @@
       </c>
     </row>
     <row r="264" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I264" s="14" t="str">
+      <c r="I264" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -33794,7 +34292,7 @@
       </c>
     </row>
     <row r="265" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I265" s="14" t="str">
+      <c r="I265" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -33852,7 +34350,7 @@
       </c>
     </row>
     <row r="266" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I266" s="14" t="str">
+      <c r="I266" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -33910,7 +34408,7 @@
       </c>
     </row>
     <row r="267" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I267" s="14" t="str">
+      <c r="I267" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -33968,7 +34466,7 @@
       </c>
     </row>
     <row r="268" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I268" s="14" t="str">
+      <c r="I268" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -34026,7 +34524,7 @@
       </c>
     </row>
     <row r="269" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I269" s="14" t="str">
+      <c r="I269" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -34084,7 +34582,7 @@
       </c>
     </row>
     <row r="270" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I270" s="14" t="str">
+      <c r="I270" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -34142,7 +34640,7 @@
       </c>
     </row>
     <row r="271" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I271" s="14" t="str">
+      <c r="I271" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -34200,7 +34698,7 @@
       </c>
     </row>
     <row r="272" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I272" s="14" t="str">
+      <c r="I272" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -34258,7 +34756,7 @@
       </c>
     </row>
     <row r="273" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I273" s="14" t="str">
+      <c r="I273" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -34316,7 +34814,7 @@
       </c>
     </row>
     <row r="274" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I274" s="14" t="str">
+      <c r="I274" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -34374,7 +34872,7 @@
       </c>
     </row>
     <row r="275" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I275" s="14" t="str">
+      <c r="I275" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -34432,7 +34930,7 @@
       </c>
     </row>
     <row r="276" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I276" s="14" t="str">
+      <c r="I276" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -34490,7 +34988,7 @@
       </c>
     </row>
     <row r="277" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I277" s="14" t="str">
+      <c r="I277" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -34548,7 +35046,7 @@
       </c>
     </row>
     <row r="278" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I278" s="14" t="str">
+      <c r="I278" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -34606,7 +35104,7 @@
       </c>
     </row>
     <row r="279" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I279" s="14" t="str">
+      <c r="I279" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -34664,7 +35162,7 @@
       </c>
     </row>
     <row r="280" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I280" s="14" t="str">
+      <c r="I280" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -34722,7 +35220,7 @@
       </c>
     </row>
     <row r="281" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I281" s="14" t="str">
+      <c r="I281" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -34780,7 +35278,7 @@
       </c>
     </row>
     <row r="282" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I282" s="14" t="str">
+      <c r="I282" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -34838,7 +35336,7 @@
       </c>
     </row>
     <row r="283" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I283" s="14" t="str">
+      <c r="I283" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -34896,7 +35394,7 @@
       </c>
     </row>
     <row r="284" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I284" s="14" t="str">
+      <c r="I284" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -34954,7 +35452,7 @@
       </c>
     </row>
     <row r="285" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I285" s="14" t="str">
+      <c r="I285" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -35012,7 +35510,7 @@
       </c>
     </row>
     <row r="286" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I286" s="14" t="str">
+      <c r="I286" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -35070,7 +35568,7 @@
       </c>
     </row>
     <row r="287" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I287" s="14" t="str">
+      <c r="I287" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -35128,7 +35626,7 @@
       </c>
     </row>
     <row r="288" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I288" s="14" t="str">
+      <c r="I288" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -35186,7 +35684,7 @@
       </c>
     </row>
     <row r="289" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I289" s="14" t="str">
+      <c r="I289" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -35244,7 +35742,7 @@
       </c>
     </row>
     <row r="290" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I290" s="14" t="str">
+      <c r="I290" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -35302,7 +35800,7 @@
       </c>
     </row>
     <row r="291" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I291" s="14" t="str">
+      <c r="I291" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -35360,7 +35858,7 @@
       </c>
     </row>
     <row r="292" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I292" s="14" t="str">
+      <c r="I292" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -35418,7 +35916,7 @@
       </c>
     </row>
     <row r="293" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I293" s="14" t="str">
+      <c r="I293" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -35476,7 +35974,7 @@
       </c>
     </row>
     <row r="294" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I294" s="14" t="str">
+      <c r="I294" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -35534,7 +36032,7 @@
       </c>
     </row>
     <row r="295" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I295" s="14" t="str">
+      <c r="I295" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -35592,7 +36090,7 @@
       </c>
     </row>
     <row r="296" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I296" s="14" t="str">
+      <c r="I296" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -35650,7 +36148,7 @@
       </c>
     </row>
     <row r="297" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I297" s="14" t="str">
+      <c r="I297" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -35708,7 +36206,7 @@
       </c>
     </row>
     <row r="298" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I298" s="14" t="str">
+      <c r="I298" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -35766,7 +36264,7 @@
       </c>
     </row>
     <row r="299" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I299" s="14" t="str">
+      <c r="I299" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -35824,7 +36322,7 @@
       </c>
     </row>
     <row r="300" spans="9:25" x14ac:dyDescent="0.25">
-      <c r="I300" s="14" t="str">
+      <c r="I300" s="13" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
@@ -35882,6 +36380,7 @@
       </c>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <mergeCells count="1">
     <mergeCell ref="J2:K2"/>
   </mergeCells>
